--- a/Defect-Report.xlsx
+++ b/Defect-Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Manual Tesing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DDBCF1-563B-449B-B467-00163461A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283C1CF0-2E10-48D6-8E14-71ACCA81A986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8949D8DD-3791-4306-BADA-C1E444B4773D}"/>
   </bookViews>
@@ -54,8 +54,93 @@
     <t>15.Detailed Description</t>
   </si>
   <si>
+    <t>3.Module name</t>
+  </si>
+  <si>
+    <t>Compose</t>
+  </si>
+  <si>
+    <t>4.Requirement number</t>
+  </si>
+  <si>
+    <t>2.1 Compose</t>
+  </si>
+  <si>
+    <t>5.Severity</t>
+  </si>
+  <si>
+    <t>Blocker</t>
+  </si>
+  <si>
+    <t>6.Priority</t>
+  </si>
+  <si>
+    <t>P1/High</t>
+  </si>
+  <si>
+    <t>7.Build id</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>8.Release name</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>9.Reporter</t>
+  </si>
+  <si>
+    <t>Kruthan</t>
+  </si>
+  <si>
+    <t>10.Assign to</t>
+  </si>
+  <si>
+    <t>11.Test case name</t>
+  </si>
+  <si>
+    <t>FT_101 fuctinality test case</t>
+  </si>
+  <si>
+    <t>16.Attach Screenshot</t>
+  </si>
+  <si>
+    <t>{picture}</t>
+  </si>
+  <si>
+    <t>12.test data</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>17.Expected result</t>
+  </si>
+  <si>
+    <t>compose page should be displayed</t>
+  </si>
+  <si>
+    <t>13.test url</t>
+  </si>
+  <si>
+    <t>gmail.com/compose</t>
+  </si>
+  <si>
+    <t>18.Actual result</t>
+  </si>
+  <si>
+    <t>blank page displayed</t>
+  </si>
+  <si>
+    <t>Tejus</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">OS:Windows                                                             Version:10                                                       Browser:Chrome                                           Version:128                                                                         </t>
+      <t xml:space="preserve">OS:Windows                                                             Version:10                                                       Browser:Chrome                                           
+Version:128                                                                         </t>
     </r>
     <r>
       <rPr>
@@ -78,90 +163,6 @@
       </rPr>
       <t>step 1 - open browser and enter test url                     step2 - login as user A with valid UN and PSW       step3 - click on compose button</t>
     </r>
-  </si>
-  <si>
-    <t>3.Module name</t>
-  </si>
-  <si>
-    <t>Compose</t>
-  </si>
-  <si>
-    <t>4.Requirement number</t>
-  </si>
-  <si>
-    <t>2.1 Compose</t>
-  </si>
-  <si>
-    <t>5.Severity</t>
-  </si>
-  <si>
-    <t>Blocker</t>
-  </si>
-  <si>
-    <t>6.Priority</t>
-  </si>
-  <si>
-    <t>P1/High</t>
-  </si>
-  <si>
-    <t>7.Build id</t>
-  </si>
-  <si>
-    <t>B01</t>
-  </si>
-  <si>
-    <t>8.Release name</t>
-  </si>
-  <si>
-    <t>Tiger</t>
-  </si>
-  <si>
-    <t>9.Reporter</t>
-  </si>
-  <si>
-    <t>Kruthan</t>
-  </si>
-  <si>
-    <t>10.Assign to</t>
-  </si>
-  <si>
-    <t>11.Test case name</t>
-  </si>
-  <si>
-    <t>FT_101 fuctinality test case</t>
-  </si>
-  <si>
-    <t>16.Attach Screenshot</t>
-  </si>
-  <si>
-    <t>{picture}</t>
-  </si>
-  <si>
-    <t>12.test data</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>17.Expected result</t>
-  </si>
-  <si>
-    <t>compose page should be displayed</t>
-  </si>
-  <si>
-    <t>13.test url</t>
-  </si>
-  <si>
-    <t>gmail.com/compose</t>
-  </si>
-  <si>
-    <t>18.Actual result</t>
-  </si>
-  <si>
-    <t>blank page displayed</t>
-  </si>
-  <si>
-    <t>Tejus</t>
   </si>
 </sst>
 </file>
@@ -692,7 +693,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,129 +729,129 @@
         <v>5</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
